--- a/004.xlsx
+++ b/004.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="8_{A13925B8-2073-42CF-92E8-40999D3B3092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D46A56-EC34-4FD1-AF1E-1331CAD5503D}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="2430" windowWidth="23595" windowHeight="16485" xr2:uid="{FF84AFDE-6459-4EA5-B35E-D068B6787A7D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FF84AFDE-6459-4EA5-B35E-D068B6787A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="004" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
